--- a/southafrica/TEMP/MTN_southafrica_backup_tracker_2020-11-23.xlsx
+++ b/southafrica/TEMP/MTN_southafrica_backup_tracker_2020-11-23.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="2" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView activeTab="10" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
     <sheet name="SDP(Daily)" sheetId="1" state="visible" r:id="rId1"/>
@@ -650,7 +650,7 @@
       <protection hidden="1" locked="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -807,6 +807,16 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,16 +824,6 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1" locked="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="22" fillId="2" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="top"/>
       <protection hidden="1" locked="1"/>
@@ -840,6 +840,9 @@
     <xf borderId="20" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="22" fillId="9" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="96">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2125,14 +2128,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="21"/>
-    <col customWidth="1" max="2" min="2" style="52" width="19.453125"/>
-    <col customWidth="1" max="3" min="3" style="52" width="30.54296875"/>
-    <col customWidth="1" max="4" min="4" style="52" width="29"/>
-    <col customWidth="1" max="5" min="5" style="52" width="37.81640625"/>
+    <col customWidth="1" max="1" min="1" style="55" width="21"/>
+    <col customWidth="1" max="2" min="2" style="55" width="19.453125"/>
+    <col customWidth="1" max="3" min="3" style="55" width="30.54296875"/>
+    <col customWidth="1" max="4" min="4" style="55" width="29"/>
+    <col customWidth="1" max="5" min="5" style="55" width="37.81640625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1" s="52">
+    <row customHeight="1" ht="15.5" r="1" s="55">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Node Name</t>
@@ -2170,17 +2173,17 @@
           <t>10.204.71.161</t>
         </is>
       </c>
-      <c r="C2" s="53" t="inlineStr">
+      <c r="C2" s="56" t="inlineStr">
         <is>
           <t>Done (2 July 2020)</t>
         </is>
       </c>
-      <c r="D2" s="53" t="inlineStr">
+      <c r="D2" s="56" t="inlineStr">
         <is>
           <t>Done (2 July 2020)</t>
         </is>
       </c>
-      <c r="E2" s="53" t="inlineStr">
+      <c r="E2" s="56" t="inlineStr">
         <is>
           <t>Done (2 July 2020)</t>
         </is>
@@ -2250,8 +2253,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -2265,46 +2268,38 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="inlineStr">
+      <c r="A1" s="64" t="inlineStr">
         <is>
           <t xml:space="preserve">Node Name  </t>
         </is>
       </c>
-      <c r="B1" s="43" t="inlineStr">
+      <c r="B1" s="64" t="inlineStr">
         <is>
           <t>IO1 IP</t>
         </is>
       </c>
-      <c r="C1" s="43" t="inlineStr">
+      <c r="C1" s="64" t="inlineStr">
         <is>
           <t>IO2 IP</t>
         </is>
       </c>
-      <c r="D1" s="44" t="inlineStr">
+      <c r="D1" s="64" t="inlineStr">
         <is>
           <t>Date of Latest Backup</t>
         </is>
       </c>
-      <c r="E1" s="44" t="inlineStr">
+      <c r="E1" s="64" t="inlineStr">
         <is>
           <t>DBN backup(Daily)</t>
         </is>
       </c>
-      <c r="F1" s="44" t="inlineStr">
+      <c r="F1" s="64" t="inlineStr">
         <is>
           <t>Backup status IO backup(Quaterly)</t>
         </is>
       </c>
-      <c r="G1" s="44" t="inlineStr">
-        <is>
-          <t>Backup status FS backupp(Quaterly)</t>
-        </is>
-      </c>
-      <c r="H1" s="44" t="inlineStr">
-        <is>
-          <t>Remarks</t>
-        </is>
-      </c>
+      <c r="G1" s="44" t="n"/>
+      <c r="H1" s="44" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
@@ -2322,7 +2317,7 @@
           <t>10.104.11.2</t>
         </is>
       </c>
-      <c r="D2" s="45" t="n"/>
+      <c r="D2" s="45" t="inlineStr"/>
       <c r="E2" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2333,11 +2328,7 @@
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G2" s="4" t="n"/>
       <c r="H2" s="5" t="n"/>
     </row>
     <row r="3">
@@ -2356,7 +2347,7 @@
           <t>10.104.11.4</t>
         </is>
       </c>
-      <c r="D3" s="45" t="n"/>
+      <c r="D3" s="45" t="inlineStr"/>
       <c r="E3" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2367,11 +2358,7 @@
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G3" s="4" t="n"/>
       <c r="H3" s="5" t="n"/>
     </row>
     <row r="4">
@@ -2390,7 +2377,7 @@
           <t>10.104.11.6</t>
         </is>
       </c>
-      <c r="D4" s="45" t="n"/>
+      <c r="D4" s="45" t="inlineStr"/>
       <c r="E4" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2401,11 +2388,7 @@
           <t>25th May 2020</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>25th May 2020</t>
-        </is>
-      </c>
+      <c r="G4" s="4" t="n"/>
       <c r="H4" s="5" t="n"/>
     </row>
     <row r="5">
@@ -2414,20 +2397,16 @@
           <t>NLCCN1 (Test CCN )</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="46" t="n"/>
+      <c r="B5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="4" t="inlineStr"/>
+      <c r="E5" s="46" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G5" s="4" t="n"/>
       <c r="H5" s="5" t="n"/>
     </row>
     <row r="6">
@@ -2436,7 +2415,7 @@
           <t>NLCCN2</t>
         </is>
       </c>
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="56" t="inlineStr">
         <is>
           <t>10.111.11.3</t>
         </is>
@@ -2446,10 +2425,10 @@
           <t>10.111.11.4</t>
         </is>
       </c>
-      <c r="D6" s="45" t="n"/>
+      <c r="D6" s="45" t="inlineStr"/>
       <c r="E6" s="46" t="inlineStr">
         <is>
-          <t>20-Sep-2020</t>
+          <t>23-Nov-2020</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2457,11 +2436,7 @@
           <t>23rd May 2020</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>23rd May 2020</t>
-        </is>
-      </c>
+      <c r="G6" s="4" t="n"/>
       <c r="H6" s="5" t="n"/>
     </row>
     <row r="7">
@@ -2480,18 +2455,14 @@
           <t>10.111.11.6</t>
         </is>
       </c>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="46" t="n"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="46" t="inlineStr"/>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G7" s="4" t="n"/>
       <c r="H7" s="5" t="n"/>
     </row>
     <row r="8">
@@ -2510,7 +2481,7 @@
           <t>10.106.11.6</t>
         </is>
       </c>
-      <c r="D8" s="45" t="n"/>
+      <c r="D8" s="45" t="inlineStr"/>
       <c r="E8" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2521,11 +2492,7 @@
           <t>21st May 2020</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>21st May 2020</t>
-        </is>
-      </c>
+      <c r="G8" s="4" t="n"/>
       <c r="H8" s="5" t="n"/>
     </row>
     <row r="9">
@@ -2544,7 +2511,7 @@
           <t>10.106.11.8</t>
         </is>
       </c>
-      <c r="D9" s="45" t="n"/>
+      <c r="D9" s="45" t="inlineStr"/>
       <c r="E9" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2555,11 +2522,7 @@
           <t>23rd May 2020</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>23rd May 2020</t>
-        </is>
-      </c>
+      <c r="G9" s="4" t="n"/>
       <c r="H9" s="5" t="n"/>
     </row>
     <row r="10">
@@ -2578,7 +2541,7 @@
           <t>10.106.11.10</t>
         </is>
       </c>
-      <c r="D10" s="45" t="n"/>
+      <c r="D10" s="45" t="inlineStr"/>
       <c r="E10" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2589,11 +2552,7 @@
           <t>23rd May 2020</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>23rd May 2020</t>
-        </is>
-      </c>
+      <c r="G10" s="4" t="n"/>
       <c r="H10" s="5" t="n"/>
     </row>
     <row r="11">
@@ -2607,12 +2566,12 @@
           <t>10.106.11.11</t>
         </is>
       </c>
-      <c r="C11" s="53" t="inlineStr">
+      <c r="C11" s="56" t="inlineStr">
         <is>
           <t>10.106.11.12</t>
         </is>
       </c>
-      <c r="D11" s="45" t="n"/>
+      <c r="D11" s="45" t="inlineStr"/>
       <c r="E11" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2623,11 +2582,7 @@
           <t>23rd May 2020</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>23rd May 2020</t>
-        </is>
-      </c>
+      <c r="G11" s="4" t="n"/>
       <c r="H11" s="5" t="n"/>
     </row>
     <row r="12">
@@ -2646,7 +2601,7 @@
           <t>10.100.11.6</t>
         </is>
       </c>
-      <c r="D12" s="47" t="n"/>
+      <c r="D12" s="47" t="inlineStr"/>
       <c r="E12" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2657,11 +2612,7 @@
           <t>25th May 2020</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>25th May 2020</t>
-        </is>
-      </c>
+      <c r="G12" s="4" t="n"/>
       <c r="H12" s="5" t="n"/>
     </row>
     <row r="13">
@@ -2680,7 +2631,7 @@
           <t>10.100.11.8</t>
         </is>
       </c>
-      <c r="D13" s="45" t="n"/>
+      <c r="D13" s="45" t="inlineStr"/>
       <c r="E13" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2691,11 +2642,7 @@
           <t>25th May 2020</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>25th May 2020</t>
-        </is>
-      </c>
+      <c r="G13" s="4" t="n"/>
       <c r="H13" s="5" t="n"/>
     </row>
     <row r="14">
@@ -2714,7 +2661,7 @@
           <t>10.127.11.2</t>
         </is>
       </c>
-      <c r="D14" s="45" t="n"/>
+      <c r="D14" s="45" t="inlineStr"/>
       <c r="E14" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2725,11 +2672,7 @@
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G14" s="4" t="n"/>
       <c r="H14" s="5" t="n"/>
     </row>
     <row r="15">
@@ -2748,10 +2691,10 @@
           <t>10.127.11.4</t>
         </is>
       </c>
-      <c r="D15" s="45" t="n"/>
+      <c r="D15" s="45" t="inlineStr"/>
       <c r="E15" s="46" t="inlineStr">
         <is>
-          <t>20-Sep-2020</t>
+          <t>23-Nov-2020</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
@@ -2759,11 +2702,7 @@
           <t>25th May 2020</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>25th May 2020</t>
-        </is>
-      </c>
+      <c r="G15" s="4" t="n"/>
       <c r="H15" s="5" t="n"/>
     </row>
     <row r="16">
@@ -2782,7 +2721,7 @@
           <t>10.127.11.6</t>
         </is>
       </c>
-      <c r="D16" s="45" t="n"/>
+      <c r="D16" s="45" t="inlineStr"/>
       <c r="E16" s="46" t="inlineStr">
         <is>
           <t>20-Sep-2020</t>
@@ -2793,11 +2732,7 @@
           <t>24th May 2020</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>24th May 2020</t>
-        </is>
-      </c>
+      <c r="G16" s="4" t="n"/>
       <c r="H16" s="5" t="n"/>
     </row>
     <row r="17">
@@ -2816,10 +2751,10 @@
           <t>10.127.11.8</t>
         </is>
       </c>
-      <c r="D17" s="45" t="n"/>
+      <c r="D17" s="45" t="inlineStr"/>
       <c r="E17" s="46" t="inlineStr">
         <is>
-          <t>20-Sep-2020</t>
+          <t>23-Nov-2020</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
@@ -2827,11 +2762,7 @@
           <t>25th May 2020</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>25th May 2020</t>
-        </is>
-      </c>
+      <c r="G17" s="4" t="n"/>
       <c r="H17" s="5" t="n"/>
     </row>
     <row r="1048576">
@@ -2857,10 +2788,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="23.7265625"/>
-    <col customWidth="1" max="2" min="2" style="52" width="31.54296875"/>
-    <col customWidth="1" max="3" min="3" style="52" width="35.453125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="52" width="39.54296875"/>
+    <col customWidth="1" max="1" min="1" style="55" width="23.7265625"/>
+    <col customWidth="1" max="2" min="2" style="55" width="31.54296875"/>
+    <col customWidth="1" max="3" min="3" style="55" width="35.453125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="55" width="39.54296875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3794,16 +3725,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.81640625" defaultRowHeight="14.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="26.7265625"/>
-    <col customWidth="1" max="2" min="2" style="52" width="26"/>
-    <col customWidth="1" max="3" min="3" style="52" width="30.453125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="52" width="16"/>
-    <col customWidth="1" max="16370" min="5" style="52" width="9.1796875"/>
-    <col customWidth="1" max="16371" min="16371" style="52" width="8.54296875"/>
-    <col customWidth="1" max="16372" min="16372" style="52" width="9.81640625"/>
+    <col customWidth="1" max="1" min="1" style="55" width="26.7265625"/>
+    <col customWidth="1" max="2" min="2" style="55" width="26"/>
+    <col customWidth="1" max="3" min="3" style="55" width="30.453125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="55" width="16"/>
+    <col customWidth="1" max="16370" min="5" style="55" width="9.1796875"/>
+    <col customWidth="1" max="16371" min="16371" style="55" width="8.54296875"/>
+    <col customWidth="1" max="16372" min="16372" style="55" width="9.81640625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1" s="52">
+    <row customHeight="1" ht="15.5" r="1" s="55">
       <c r="A1" s="60" t="inlineStr">
         <is>
           <t>Node Name</t>
@@ -3921,7 +3852,7 @@
       <c r="C9" s="21" t="n"/>
       <c r="D9" s="18" t="n"/>
     </row>
-    <row customHeight="1" ht="12.75" r="10" s="52">
+    <row customHeight="1" ht="12.75" r="10" s="55">
       <c r="A10" s="5" t="n"/>
       <c r="B10" s="9" t="n"/>
       <c r="C10" s="21" t="n"/>
@@ -4229,14 +4160,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="21"/>
-    <col customWidth="1" max="2" min="2" style="52" width="13.81640625"/>
-    <col customWidth="1" max="3" min="3" style="52" width="16.453125"/>
-    <col customWidth="1" max="4" min="4" style="52" width="34.54296875"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="52" width="20.26953125"/>
+    <col customWidth="1" max="1" min="1" style="55" width="21"/>
+    <col customWidth="1" max="2" min="2" style="55" width="13.81640625"/>
+    <col customWidth="1" max="3" min="3" style="55" width="16.453125"/>
+    <col customWidth="1" max="4" min="4" style="55" width="34.54296875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="55" width="20.26953125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.5" r="1" s="52">
+    <row customHeight="1" ht="15.5" r="1" s="55">
       <c r="A1" s="57" t="inlineStr">
         <is>
           <t>Server name</t>
@@ -4281,14 +4212,10 @@
       </c>
       <c r="D2" s="30" t="inlineStr">
         <is>
-          <t>Not Done</t>
-        </is>
-      </c>
-      <c r="E2" s="18" t="inlineStr">
-        <is>
-          <t>BURA_BACKUP Failure</t>
-        </is>
-      </c>
+          <t>Done</t>
+        </is>
+      </c>
+      <c r="E2" s="18" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="inlineStr">
@@ -4788,10 +4715,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="18.08984375"/>
-    <col customWidth="1" max="2" min="2" style="52" width="17.6328125"/>
-    <col customWidth="1" max="3" min="3" style="52" width="14.08984375"/>
-    <col customWidth="1" max="4" min="4" style="52" width="17.7265625"/>
+    <col customWidth="1" max="1" min="1" style="55" width="18.08984375"/>
+    <col customWidth="1" max="2" min="2" style="55" width="17.6328125"/>
+    <col customWidth="1" max="3" min="3" style="55" width="14.08984375"/>
+    <col customWidth="1" max="4" min="4" style="55" width="17.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4899,79 +4826,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="52" width="19.1796875"/>
-    <col customWidth="1" max="2" min="2" style="52" width="16"/>
-    <col customWidth="1" max="3" min="3" style="52" width="18.08984375"/>
-    <col customWidth="1" max="4" min="4" style="52" width="13.26953125"/>
-    <col customWidth="1" max="5" min="5" style="52" width="19.453125"/>
+    <col customWidth="1" max="1" min="1" style="55" width="19.1796875"/>
+    <col customWidth="1" max="2" min="2" style="55" width="16"/>
+    <col customWidth="1" max="3" min="3" style="55" width="18.08984375"/>
+    <col customWidth="1" max="4" min="4" style="55" width="13.26953125"/>
+    <col customWidth="1" max="5" min="5" style="55" width="19.453125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29" r="1" s="52">
-      <c r="A1" s="54" t="inlineStr">
+    <row customHeight="1" ht="29" r="1" s="55">
+      <c r="A1" s="51" t="inlineStr">
         <is>
           <t>Node Type</t>
         </is>
       </c>
-      <c r="B1" s="54" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve">Node Name  </t>
         </is>
       </c>
-      <c r="C1" s="55" t="inlineStr">
+      <c r="C1" s="52" t="inlineStr">
         <is>
           <t>IP  Address</t>
         </is>
       </c>
-      <c r="D1" s="56" t="inlineStr">
+      <c r="D1" s="53" t="inlineStr">
         <is>
           <t>Back Type</t>
         </is>
       </c>
-      <c r="E1" s="56" t="inlineStr">
+      <c r="E1" s="53" t="inlineStr">
         <is>
           <t>Logs</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>occ</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>RNAOCCRVA02</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>10.104.122.194</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>bura_backup.inp</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>'cmd-6-start\ncat /var/log/cfbackup*`date +%Y%m%d`*| egrep ":Filesystem \n|CRITICAL"\ncat: /var/log/cfbackup*20201121*: Permission denied\n[amsro@RNAOCCRVA02 ~]$ \ncmd-6-end\n'</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4993,28 +4888,28 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="8" width="16.7265625"/>
-    <col customWidth="1" max="2" min="2" style="52" width="21.7265625"/>
-    <col customWidth="1" max="3" min="3" style="52" width="29.453125"/>
-    <col customWidth="1" max="4" min="4" style="52" width="13.7265625"/>
+    <col customWidth="1" max="2" min="2" style="55" width="21.7265625"/>
+    <col customWidth="1" max="3" min="3" style="55" width="29.453125"/>
+    <col customWidth="1" max="4" min="4" style="55" width="13.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="54" t="inlineStr">
+      <c r="A1" s="51" t="inlineStr">
         <is>
           <t>Node Name</t>
         </is>
       </c>
-      <c r="B1" s="54" t="inlineStr">
+      <c r="B1" s="51" t="inlineStr">
         <is>
           <t>Node IP</t>
         </is>
       </c>
-      <c r="C1" s="54" t="inlineStr">
+      <c r="C1" s="51" t="inlineStr">
         <is>
           <t>NFS Back up</t>
         </is>
       </c>
-      <c r="D1" s="54" t="inlineStr">
+      <c r="D1" s="51" t="inlineStr">
         <is>
           <t>Remarks</t>
         </is>
@@ -5026,7 +4921,7 @@
           <t>RBOCC01</t>
         </is>
       </c>
-      <c r="B2" s="53" t="inlineStr">
+      <c r="B2" s="56" t="inlineStr">
         <is>
           <t>10.104.11.8</t>
         </is>
@@ -5044,7 +4939,7 @@
           <t>RBOCC02</t>
         </is>
       </c>
-      <c r="B3" s="53" t="inlineStr">
+      <c r="B3" s="56" t="inlineStr">
         <is>
           <t>10.104.11.10</t>
         </is>
@@ -5062,7 +4957,7 @@
           <t>RBOCC03</t>
         </is>
       </c>
-      <c r="B4" s="53" t="inlineStr">
+      <c r="B4" s="56" t="inlineStr">
         <is>
           <t>10.104.11.12</t>
         </is>
@@ -5080,7 +4975,7 @@
           <t>JHOCC01</t>
         </is>
       </c>
-      <c r="B5" s="53" t="inlineStr">
+      <c r="B5" s="56" t="inlineStr">
         <is>
           <t>10.100.11.10</t>
         </is>
@@ -5098,7 +4993,7 @@
           <t>JHOCC02</t>
         </is>
       </c>
-      <c r="B6" s="53" t="inlineStr">
+      <c r="B6" s="56" t="inlineStr">
         <is>
           <t>10.100.11.12</t>
         </is>
@@ -5116,7 +5011,7 @@
           <t>JHOCC03</t>
         </is>
       </c>
-      <c r="B7" s="53" t="inlineStr">
+      <c r="B7" s="56" t="inlineStr">
         <is>
           <t>10.100.11.14</t>
         </is>
@@ -5134,7 +5029,7 @@
           <t>NLOCC01</t>
         </is>
       </c>
-      <c r="B8" s="53" t="inlineStr">
+      <c r="B8" s="56" t="inlineStr">
         <is>
           <t>10.111.11.7</t>
         </is>
@@ -5152,7 +5047,7 @@
           <t>NLOCC02</t>
         </is>
       </c>
-      <c r="B9" s="53" t="inlineStr">
+      <c r="B9" s="56" t="inlineStr">
         <is>
           <t>10.111.11.9</t>
         </is>
@@ -5171,7 +5066,7 @@
           <t>NLOCC03</t>
         </is>
       </c>
-      <c r="B10" s="53" t="inlineStr">
+      <c r="B10" s="56" t="inlineStr">
         <is>
           <t>10.111.11.11</t>
         </is>
@@ -5189,7 +5084,7 @@
           <t>CNOCC01</t>
         </is>
       </c>
-      <c r="B11" s="53" t="inlineStr">
+      <c r="B11" s="56" t="inlineStr">
         <is>
           <t>10.127.11.10</t>
         </is>
@@ -5207,7 +5102,7 @@
           <t>CNOCC02</t>
         </is>
       </c>
-      <c r="B12" s="53" t="inlineStr">
+      <c r="B12" s="56" t="inlineStr">
         <is>
           <t>10.127.11.12</t>
         </is>
@@ -5225,7 +5120,7 @@
           <t>CNOCC03</t>
         </is>
       </c>
-      <c r="B13" s="53" t="inlineStr">
+      <c r="B13" s="56" t="inlineStr">
         <is>
           <t>10.127.11.14</t>
         </is>
@@ -5243,7 +5138,7 @@
           <t>CNOCC04</t>
         </is>
       </c>
-      <c r="B14" s="53" t="inlineStr">
+      <c r="B14" s="56" t="inlineStr">
         <is>
           <t>10.127.11.16</t>
         </is>
@@ -5261,7 +5156,7 @@
           <t>CNOCC05</t>
         </is>
       </c>
-      <c r="B15" s="53" t="inlineStr">
+      <c r="B15" s="56" t="inlineStr">
         <is>
           <t>10.127.11.18</t>
         </is>
@@ -5279,7 +5174,7 @@
           <t>CNOCC06</t>
         </is>
       </c>
-      <c r="B16" s="53" t="inlineStr">
+      <c r="B16" s="56" t="inlineStr">
         <is>
           <t>10.127.11.20</t>
         </is>
@@ -5292,12 +5187,12 @@
       <c r="D16" s="18" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="53" t="inlineStr">
+      <c r="A17" s="56" t="inlineStr">
         <is>
           <t>GEOCC01</t>
         </is>
       </c>
-      <c r="B17" s="53" t="inlineStr">
+      <c r="B17" s="56" t="inlineStr">
         <is>
           <t>10.106.11.14</t>
         </is>
@@ -5315,7 +5210,7 @@
           <t>GEOCC02</t>
         </is>
       </c>
-      <c r="B18" s="53" t="inlineStr">
+      <c r="B18" s="56" t="inlineStr">
         <is>
           <t>10.106.11.16</t>
         </is>
@@ -5333,7 +5228,7 @@
           <t>GEOCC03</t>
         </is>
       </c>
-      <c r="B19" s="53" t="inlineStr">
+      <c r="B19" s="56" t="inlineStr">
         <is>
           <t>10.106.11.18</t>
         </is>
@@ -5365,10 +5260,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="52" width="11.453125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="55" width="11.453125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="43.5" r="1" s="52">
+    <row customHeight="1" ht="43.5" r="1" s="55">
       <c r="A1" s="38" t="inlineStr">
         <is>
           <t>Node Name</t>
@@ -5485,14 +5380,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="52" width="14.1796875"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="52" width="13.54296875"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" style="52" width="7.453125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="52" width="14.08984375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="52" width="30.08984375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="55" width="14.1796875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="55" width="13.54296875"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="55" width="7.453125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="55" width="14.08984375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="55" width="30.08984375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="31" r="1" s="52">
+    <row customHeight="1" ht="31" r="1" s="55">
       <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Node Name</t>
@@ -5550,7 +5445,7 @@
           <t>Done(Apr 2020)</t>
         </is>
       </c>
-      <c r="F2" s="51" t="inlineStr">
+      <c r="F2" s="54" t="inlineStr">
         <is>
           <t>Next backup Planned  28may' 2020</t>
         </is>
